--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H2">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I2">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J2">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N2">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O2">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P2">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q2">
-        <v>18.21276498197589</v>
+        <v>34.913329383192</v>
       </c>
       <c r="R2">
-        <v>163.914884837783</v>
+        <v>314.219964448728</v>
       </c>
       <c r="S2">
-        <v>0.002238628184162924</v>
+        <v>0.004169899693883881</v>
       </c>
       <c r="T2">
-        <v>0.002238628184162925</v>
+        <v>0.004169899693883882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H3">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I3">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J3">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>28.990976</v>
       </c>
       <c r="O3">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P3">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q3">
-        <v>20.01068939838579</v>
+        <v>22.802910154752</v>
       </c>
       <c r="R3">
-        <v>180.096204585472</v>
+        <v>205.226191392768</v>
       </c>
       <c r="S3">
-        <v>0.002459620673527008</v>
+        <v>0.002723482685662695</v>
       </c>
       <c r="T3">
-        <v>0.002459620673527008</v>
+        <v>0.002723482685662695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H4">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I4">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J4">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N4">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O4">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P4">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q4">
-        <v>194.7225466323428</v>
+        <v>241.756825852152</v>
       </c>
       <c r="R4">
-        <v>1752.502919691085</v>
+        <v>2175.811432669368</v>
       </c>
       <c r="S4">
-        <v>0.02393438785459198</v>
+        <v>0.02887440791025071</v>
       </c>
       <c r="T4">
-        <v>0.02393438785459198</v>
+        <v>0.02887440791025071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H5">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I5">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J5">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N5">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O5">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P5">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q5">
-        <v>3.015800650511668</v>
+        <v>2.623518239784</v>
       </c>
       <c r="R5">
-        <v>27.14220585460501</v>
+        <v>23.611664158056</v>
       </c>
       <c r="S5">
-        <v>0.0003706881596909433</v>
+        <v>0.0003133418696596931</v>
       </c>
       <c r="T5">
-        <v>0.0003706881596909433</v>
+        <v>0.0003133418696596931</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H6">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I6">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J6">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N6">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O6">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P6">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q6">
-        <v>406.6902921930621</v>
+        <v>506.669935289544</v>
       </c>
       <c r="R6">
-        <v>3660.212629737559</v>
+        <v>4560.029417605896</v>
       </c>
       <c r="S6">
-        <v>0.04998847518374291</v>
+        <v>0.06051450392700627</v>
       </c>
       <c r="T6">
-        <v>0.04998847518374291</v>
+        <v>0.06051450392700627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H7">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I7">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J7">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N7">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O7">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P7">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q7">
-        <v>204.1129018930683</v>
+        <v>142.208718009696</v>
       </c>
       <c r="R7">
-        <v>1837.016117037614</v>
+        <v>1279.878462087264</v>
       </c>
       <c r="S7">
-        <v>0.02508860655596798</v>
+        <v>0.01698480494907287</v>
       </c>
       <c r="T7">
-        <v>0.02508860655596799</v>
+        <v>0.01698480494907287</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.755688</v>
       </c>
       <c r="I8">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J8">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N8">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O8">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P8">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q8">
-        <v>13.94272026589245</v>
+        <v>23.45495863064978</v>
       </c>
       <c r="R8">
-        <v>125.484482393032</v>
+        <v>211.094627675848</v>
       </c>
       <c r="S8">
-        <v>0.001713774189806746</v>
+        <v>0.002801360584679469</v>
       </c>
       <c r="T8">
-        <v>0.001713774189806746</v>
+        <v>0.002801360584679469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.755688</v>
       </c>
       <c r="I9">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J9">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>28.990976</v>
       </c>
       <c r="O9">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P9">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q9">
         <v>15.31911518572089</v>
@@ -1013,10 +1013,10 @@
         <v>137.872036671488</v>
       </c>
       <c r="S9">
-        <v>0.001882954238147344</v>
+        <v>0.001829650017688151</v>
       </c>
       <c r="T9">
-        <v>0.001882954238147344</v>
+        <v>0.001829650017688151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4.755688</v>
       </c>
       <c r="I10">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J10">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N10">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O10">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P10">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q10">
-        <v>149.0691830616489</v>
+        <v>162.4135093735653</v>
       </c>
       <c r="R10">
-        <v>1341.62264755484</v>
+        <v>1461.721584362088</v>
       </c>
       <c r="S10">
-        <v>0.01832288918910464</v>
+        <v>0.01939797936731518</v>
       </c>
       <c r="T10">
-        <v>0.01832288918910464</v>
+        <v>0.01939797936731518</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4.755688</v>
       </c>
       <c r="I11">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J11">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N11">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O11">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P11">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q11">
-        <v>2.308735927213334</v>
+        <v>1.762493376255111</v>
       </c>
       <c r="R11">
-        <v>20.77862334492</v>
+        <v>15.862440386296</v>
       </c>
       <c r="S11">
-        <v>0.0002837790594434264</v>
+        <v>0.0002105047189700768</v>
       </c>
       <c r="T11">
-        <v>0.0002837790594434264</v>
+        <v>0.0002105047189700768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>4.755688</v>
       </c>
       <c r="I12">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J12">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N12">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O12">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P12">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q12">
-        <v>311.3403694888481</v>
+        <v>340.383532065304</v>
       </c>
       <c r="R12">
-        <v>2802.063325399633</v>
+        <v>3063.451788587736</v>
       </c>
       <c r="S12">
-        <v>0.03826850709901487</v>
+        <v>0.04065396257641179</v>
       </c>
       <c r="T12">
-        <v>0.03826850709901487</v>
+        <v>0.04065396257641179</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>4.755688</v>
       </c>
       <c r="I13">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J13">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N13">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O13">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P13">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q13">
-        <v>156.2579375822951</v>
+        <v>95.53656602686934</v>
       </c>
       <c r="R13">
-        <v>1406.321438240656</v>
+        <v>859.829094241824</v>
       </c>
       <c r="S13">
-        <v>0.01920649738889602</v>
+        <v>0.01141048145416768</v>
       </c>
       <c r="T13">
-        <v>0.01920649738889603</v>
+        <v>0.01141048145416768</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H14">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I14">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J14">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N14">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O14">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P14">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q14">
-        <v>19.85991696670333</v>
+        <v>44.65774827148111</v>
       </c>
       <c r="R14">
-        <v>178.73925270033</v>
+        <v>401.91973444333</v>
       </c>
       <c r="S14">
-        <v>0.002441088428956063</v>
+        <v>0.005333731676029783</v>
       </c>
       <c r="T14">
-        <v>0.002441088428956064</v>
+        <v>0.005333731676029784</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H15">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I15">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J15">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>28.990976</v>
       </c>
       <c r="O15">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P15">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q15">
-        <v>21.82044463274667</v>
+        <v>29.16727334627556</v>
       </c>
       <c r="R15">
-        <v>196.38400169472</v>
+        <v>262.50546011648</v>
       </c>
       <c r="S15">
-        <v>0.002682067351891664</v>
+        <v>0.003483615179267738</v>
       </c>
       <c r="T15">
-        <v>0.002682067351891664</v>
+        <v>0.003483615179267738</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H16">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I16">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J16">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N16">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O16">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P16">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q16">
-        <v>212.3331416998167</v>
+        <v>309.2319083443033</v>
       </c>
       <c r="R16">
-        <v>1910.99827529835</v>
+        <v>2783.08717509873</v>
       </c>
       <c r="S16">
-        <v>0.02609900011950303</v>
+        <v>0.03693334502107996</v>
       </c>
       <c r="T16">
-        <v>0.02609900011950304</v>
+        <v>0.03693334502107996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H17">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I17">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J17">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N17">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O17">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P17">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q17">
-        <v>3.28854792595</v>
+        <v>3.355750345434444</v>
       </c>
       <c r="R17">
-        <v>29.59693133355</v>
+        <v>30.20175310891</v>
       </c>
       <c r="S17">
-        <v>0.0004042129835468573</v>
+        <v>0.0004007965606658644</v>
       </c>
       <c r="T17">
-        <v>0.0004042129835468574</v>
+        <v>0.0004007965606658645</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H18">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I18">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J18">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N18">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O18">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P18">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q18">
-        <v>443.4711281956201</v>
+        <v>648.0830910895899</v>
       </c>
       <c r="R18">
-        <v>3991.240153760581</v>
+        <v>5832.747819806309</v>
       </c>
       <c r="S18">
-        <v>0.05450940411429718</v>
+        <v>0.0774042903065788</v>
       </c>
       <c r="T18">
-        <v>0.05450940411429719</v>
+        <v>0.0774042903065788</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H19">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I19">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J19">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N19">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O19">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P19">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q19">
-        <v>222.5727552867934</v>
+        <v>181.8996137888933</v>
       </c>
       <c r="R19">
-        <v>2003.15479758114</v>
+        <v>1637.09652410004</v>
       </c>
       <c r="S19">
-        <v>0.02735760569605491</v>
+        <v>0.02172531687055494</v>
       </c>
       <c r="T19">
-        <v>0.02735760569605492</v>
+        <v>0.02172531687055494</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H20">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I20">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J20">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N20">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O20">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P20">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q20">
-        <v>27.061437962699</v>
+        <v>25.635875303803</v>
       </c>
       <c r="R20">
-        <v>243.552941664291</v>
+        <v>230.722877734227</v>
       </c>
       <c r="S20">
-        <v>0.003326265824394454</v>
+        <v>0.003061840004099893</v>
       </c>
       <c r="T20">
-        <v>0.003326265824394455</v>
+        <v>0.003061840004099893</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H21">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I21">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J21">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>28.990976</v>
       </c>
       <c r="O21">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P21">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q21">
-        <v>29.732884066816</v>
+        <v>16.743535251968</v>
       </c>
       <c r="R21">
-        <v>267.595956601344</v>
+        <v>150.691817267712</v>
       </c>
       <c r="S21">
-        <v>0.003654627528236072</v>
+        <v>0.001999776697186823</v>
       </c>
       <c r="T21">
-        <v>0.003654627528236074</v>
+        <v>0.001999776697186823</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H22">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I22">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J22">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N22">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O22">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P22">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q22">
-        <v>289.328507826505</v>
+        <v>177.515234177943</v>
       </c>
       <c r="R22">
-        <v>2603.956570438545</v>
+        <v>1597.637107601487</v>
       </c>
       <c r="S22">
-        <v>0.03556291165801607</v>
+        <v>0.02120166520167761</v>
       </c>
       <c r="T22">
-        <v>0.03556291165801608</v>
+        <v>0.02120166520167761</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H23">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I23">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J23">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N23">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O23">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P23">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q23">
-        <v>4.481027581065</v>
+        <v>1.926375617581</v>
       </c>
       <c r="R23">
-        <v>40.329248229585</v>
+        <v>17.337380558229</v>
       </c>
       <c r="S23">
-        <v>0.0005507870247549434</v>
+        <v>0.0002300781174402559</v>
       </c>
       <c r="T23">
-        <v>0.0005507870247549436</v>
+        <v>0.0002300781174402559</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H24">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I24">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J24">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N24">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O24">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P24">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q24">
-        <v>604.280795535774</v>
+        <v>372.033475773921</v>
       </c>
       <c r="R24">
-        <v>5438.527159821966</v>
+        <v>3348.301281965289</v>
       </c>
       <c r="S24">
-        <v>0.07427537890998563</v>
+        <v>0.04443409735340446</v>
       </c>
       <c r="T24">
-        <v>0.07427537890998566</v>
+        <v>0.04443409735340446</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H25">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I25">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J25">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N25">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O25">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P25">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q25">
-        <v>303.281167765142</v>
+        <v>104.419859876364</v>
       </c>
       <c r="R25">
-        <v>2729.530509886278</v>
+        <v>939.7787388872759</v>
       </c>
       <c r="S25">
-        <v>0.037277907586069</v>
+        <v>0.01247146432111595</v>
       </c>
       <c r="T25">
-        <v>0.03727790758606902</v>
+        <v>0.01247146432111595</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H26">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I26">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J26">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N26">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O26">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P26">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q26">
-        <v>64.32243089715902</v>
+        <v>141.887800441908</v>
       </c>
       <c r="R26">
-        <v>578.9018780744311</v>
+        <v>1276.990203977172</v>
       </c>
       <c r="S26">
-        <v>0.007906213407066676</v>
+        <v>0.0169464759185472</v>
       </c>
       <c r="T26">
-        <v>0.007906213407066678</v>
+        <v>0.0169464759185472</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H27">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I27">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J27">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>28.990976</v>
       </c>
       <c r="O27">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P27">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q27">
-        <v>70.67220091545602</v>
+        <v>92.67104635084802</v>
       </c>
       <c r="R27">
-        <v>636.0498082391041</v>
+        <v>834.0394171576321</v>
       </c>
       <c r="S27">
-        <v>0.008686697542231211</v>
+        <v>0.01106823596137282</v>
       </c>
       <c r="T27">
-        <v>0.008686697542231213</v>
+        <v>0.01106823596137282</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H28">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I28">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J28">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N28">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O28">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P28">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q28">
-        <v>687.7059887542051</v>
+        <v>982.499946810948</v>
       </c>
       <c r="R28">
-        <v>6189.353898787846</v>
+        <v>8842.499521298532</v>
       </c>
       <c r="S28">
-        <v>0.08452961482599515</v>
+        <v>0.1173456184164506</v>
       </c>
       <c r="T28">
-        <v>0.08452961482599516</v>
+        <v>0.1173456184164506</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H29">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I29">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J29">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N29">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O29">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P29">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q29">
-        <v>10.650970851165</v>
+        <v>10.661980367916</v>
       </c>
       <c r="R29">
-        <v>95.85873766048502</v>
+        <v>95.957823311244</v>
       </c>
       <c r="S29">
-        <v>0.001309167694181105</v>
+        <v>0.001273421626004324</v>
       </c>
       <c r="T29">
-        <v>0.001309167694181105</v>
+        <v>0.001273421626004324</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H30">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I30">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J30">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N30">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O30">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P30">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q30">
-        <v>1436.317233655734</v>
+        <v>2059.107049896156</v>
       </c>
       <c r="R30">
-        <v>12926.85510290161</v>
+        <v>18531.9634490654</v>
       </c>
       <c r="S30">
-        <v>0.1765454198658317</v>
+        <v>0.2459309956606353</v>
       </c>
       <c r="T30">
-        <v>0.1765454198658317</v>
+        <v>0.2459309956606353</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H31">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I31">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J31">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N31">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O31">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P31">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q31">
-        <v>720.8701172078222</v>
+        <v>577.936351489104</v>
       </c>
       <c r="R31">
-        <v>6487.831054870399</v>
+        <v>5201.427163401936</v>
       </c>
       <c r="S31">
-        <v>0.08860599492165551</v>
+        <v>0.06902626182420105</v>
       </c>
       <c r="T31">
-        <v>0.08860599492165554</v>
+        <v>0.06902626182420105</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H32">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I32">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J32">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N32">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O32">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P32">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q32">
-        <v>31.58817925256956</v>
+        <v>36.83885826223167</v>
       </c>
       <c r="R32">
-        <v>284.293613273126</v>
+        <v>331.549724360085</v>
       </c>
       <c r="S32">
-        <v>0.003882671765169893</v>
+        <v>0.00439987668047106</v>
       </c>
       <c r="T32">
-        <v>0.003882671765169893</v>
+        <v>0.004399876680471061</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H33">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I33">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J33">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>28.990976</v>
       </c>
       <c r="O33">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P33">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q33">
-        <v>34.70649537888711</v>
+        <v>24.06052902997334</v>
       </c>
       <c r="R33">
-        <v>312.3584584099841</v>
+        <v>216.54476126976</v>
       </c>
       <c r="S33">
-        <v>0.004265960649335074</v>
+        <v>0.002873687339743399</v>
       </c>
       <c r="T33">
-        <v>0.004265960649335075</v>
+        <v>0.002873687339743399</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H34">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I34">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J34">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N34">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O34">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P34">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q34">
-        <v>337.7263536660411</v>
+        <v>255.090121705265</v>
       </c>
       <c r="R34">
-        <v>3039.53718299437</v>
+        <v>2295.811095347385</v>
       </c>
       <c r="S34">
-        <v>0.04151174929230061</v>
+        <v>0.03046688010578774</v>
       </c>
       <c r="T34">
-        <v>0.04151174929230062</v>
+        <v>0.03046688010578774</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H35">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I35">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J35">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N35">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O35">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P35">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q35">
-        <v>5.230597969756666</v>
+        <v>2.768209686421666</v>
       </c>
       <c r="R35">
-        <v>47.07538172781</v>
+        <v>24.913887177795</v>
       </c>
       <c r="S35">
-        <v>0.0006429207232790143</v>
+        <v>0.0003306232011654901</v>
       </c>
       <c r="T35">
-        <v>0.0006429207232790145</v>
+        <v>0.0003306232011654901</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H36">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I36">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J36">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N36">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O36">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P36">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q36">
-        <v>705.3627421639641</v>
+        <v>534.613635010455</v>
       </c>
       <c r="R36">
-        <v>6348.264679475677</v>
+        <v>4811.522715094095</v>
       </c>
       <c r="S36">
-        <v>0.08669990065920161</v>
+        <v>0.06385198067215755</v>
       </c>
       <c r="T36">
-        <v>0.08669990065920163</v>
+        <v>0.06385198067215755</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H37">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I37">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J37">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N37">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O37">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P37">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q37">
-        <v>354.0129650353009</v>
+        <v>150.05176816322</v>
       </c>
       <c r="R37">
-        <v>3186.116685317708</v>
+        <v>1350.46591346898</v>
       </c>
       <c r="S37">
-        <v>0.04351362365194975</v>
+        <v>0.01792154552959282</v>
       </c>
       <c r="T37">
-        <v>0.04351362365194977</v>
+        <v>0.01792154552959282</v>
       </c>
     </row>
   </sheetData>
